--- a/biology/Botanique/Colchicaceae/Colchicaceae.xlsx
+++ b/biology/Botanique/Colchicaceae/Colchicaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Colchicaceae (Colchicacées), créée en classification APG III, est constituée de plantes monocotylédones. Elle comprend environ 200 espèces réparties en une vingtaine de genres.
 Ce sont des plantes herbacées, vivaces, rhizomateuses ou à bulbe, des régions tempérées d'Eurasie et d'Afrique australe.
 En France on peut citer le genre Colchicum avec plusieurs espèces, dont le colchique d'automne.
-En classification classique de Cronquist (1981)[1] ces plantes étaient assignées aux Liliacées.
+En classification classique de Cronquist (1981) ces plantes étaient assignées aux Liliacées.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Colchicum lequel est dérivé de Colchide, Colchis ou Kolchis (dans les langues géorgienne et laze : კოლხეთი, k'olkhéti ; en grec Κολχίς, Kolchis, sans doute lié au khalkos désignant le cuivre) ancien État, royaume puis région de Géorgie, où la magicienne Médée habitait.
-Le plus grand nombre d'espèces se rencontre en effet en Asie mineure et dans les Balkans. Le colchique est également connu sous les noms « safran bâtard », « safran des prés » ou encore « tue-chien » en  raison de sa grande toxicité[2].
+Le plus grand nombre d'espèces se rencontre en effet en Asie mineure et dans les Balkans. Le colchique est également connu sous les noms « safran bâtard », « safran des prés » ou encore « tue-chien » en  raison de sa grande toxicité.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1] la famille n'existe pas ces plantes faisant partie des Liliacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) la famille n'existe pas ces plantes faisant partie des Liliacées.
 Cette famille est créée dans la classification phylogénétique.
 </t>
         </is>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (25 nov. 2011)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (25 nov. 2011) :
 Androcymbium Willd. (1808)
 Baeometra Salisb. ex Endl. (1836)
 Burchardia R.Br. (1810)
@@ -597,7 +615,7 @@
 Tripladenia D.Don (1839)
 Uvularia L. (1753)
 Wurmbea Thunb. (1781)
-Selon Angiosperm Phylogeny Website                        (17 mai 2010)[4] :
+Selon Angiosperm Phylogeny Website                        (17 mai 2010) :
 Androcymbium Willd.
 Baeometra Salisb. ex Endl.
 Bulbocodium L.
@@ -620,7 +638,7 @@
 Triplandenia
 Uvularia
 Wurmbea Thunb.
-Selon NCBI  (15 avr. 2010)[5] :
+Selon NCBI  (15 avr. 2010) :
 Androcymbium
 Baeometra
 Burchardia
@@ -638,7 +656,7 @@
 Tripladenia
 Uvularia
 Wurmbea
-Selon GBIF       (20 juin 2022)[6] :
+Selon GBIF       (20 juin 2022) :
 Androcymbium Willd.
 Baeometra Salisb.
 Burchardia R.Br.
